--- a/team_specific_matrix/Cumberlands (KY)_A.xlsx
+++ b/team_specific_matrix/Cumberlands (KY)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.2903225806451613</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1404,13 +1404,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1162790697674419</v>
       </c>
     </row>
   </sheetData>
